--- a/medicine/Hématologie/Facteur_Stuart/Facteur_Stuart.xlsx
+++ b/medicine/Hématologie/Facteur_Stuart/Facteur_Stuart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le facteur X, aussi connu par l'éponyme, facteur Stuart ou facteur de Stuart-Prower est une enzyme (EC 3.4.21.6) de la cascade de coagulation. Il s'agit d'une protéase à sérine (peptidase du groupe S1).
 Le facteur X peut être activé soit par le facteur IX (et son cofacteur VIII), soit par le facteur VII (et son cofacteur le facteur tissulaire). Il est par conséquent le premier facteur impliqué dans la voie finale commune de la cascade de coagulation.
@@ -516,10 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Déficit constitutionnel
-Le déficit congénital en facteur X est une maladie héréditaire rare et de sévérité variable pouvant se manifester par des hémorragies à tout âge de la vie[1].
-Déficit acquis
-Le déficit en facteur X peut également être acquis, notamment en cas d'amylose AL[2].
+          <t>Déficit constitutionnel</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le déficit congénital en facteur X est une maladie héréditaire rare et de sévérité variable pouvant se manifester par des hémorragies à tout âge de la vie.
 </t>
         </is>
       </c>
@@ -545,12 +560,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Pathologies associées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Déficit acquis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le déficit en facteur X peut également être acquis, notamment en cas d'amylose AL.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Facteur_Stuart</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facteur_Stuart</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Implications thérapeutiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le facteur Xa est inhibé par certains anticoagulants oraux directs tels que le rivaroxaban, l'apixaban ou l'edoxaban[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le facteur Xa est inhibé par certains anticoagulants oraux directs tels que le rivaroxaban, l'apixaban ou l'edoxaban.
 </t>
         </is>
       </c>
